--- a/financial-data/financial-data.xlsx
+++ b/financial-data/financial-data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9721" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9723" uniqueCount="1139">
   <si>
     <t>省份</t>
   </si>
@@ -4709,8 +4709,8 @@
   <sheetPr/>
   <dimension ref="A1:H2225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A717" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2013" workbookViewId="0">
+      <selection activeCell="E2020" sqref="E2020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -55104,7 +55104,7 @@
         <v>84</v>
       </c>
       <c r="C2016" s="14" t="s">
-        <v>865</v>
+        <v>1101</v>
       </c>
       <c r="D2016" s="4"/>
       <c r="E2016" s="4"/>
@@ -55127,9 +55127,11 @@
         <v>84</v>
       </c>
       <c r="C2017" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D2017" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D2017" s="4"/>
       <c r="E2017" s="4"/>
       <c r="F2017" s="16">
         <v>65968557</v>
@@ -55150,9 +55152,11 @@
         <v>84</v>
       </c>
       <c r="C2018" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D2018" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D2018" s="4"/>
       <c r="E2018" s="4"/>
       <c r="F2018" s="16">
         <v>959782</v>
